--- a/PolicyEffectiveness/0-DayLag_WashingtonPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_WashingtonPolicy.xlsx
@@ -2358,10 +2358,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2429,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2470,10 +2470,10 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2582,10 +2582,10 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2638,10 +2638,10 @@
         <v>1</v>
       </c>
       <c r="C31">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -2750,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2974,10 +2974,10 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3030,10 +3030,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -3101,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3142,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3198,10 +3198,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3254,10 +3254,10 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3310,10 +3310,10 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3366,10 +3366,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="C45">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3478,10 +3478,10 @@
         <v>1</v>
       </c>
       <c r="C46">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D46">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3534,10 +3534,10 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>1</v>
       </c>
       <c r="C48">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3646,10 +3646,10 @@
         <v>1</v>
       </c>
       <c r="C49">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>1</v>
       </c>
       <c r="C51">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3814,10 +3814,10 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3829,7 +3829,7 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3870,10 +3870,10 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3926,10 +3926,10 @@
         <v>1</v>
       </c>
       <c r="C54">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>1</v>
       </c>
       <c r="C55">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D55">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D56">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -4053,7 +4053,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4094,10 +4094,10 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>1</v>
       </c>
       <c r="C58">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D58">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -4165,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4206,10 +4206,10 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -4221,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4262,10 +4262,10 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4318,10 +4318,10 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4430,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4486,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="C64">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4542,10 +4542,10 @@
         <v>1</v>
       </c>
       <c r="C65">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4598,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="C66">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D66">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4654,10 +4654,10 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D67">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -4669,7 +4669,7 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4710,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4766,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4822,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="C70">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D70">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="C71">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D71">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4934,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="C72">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D72">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4990,10 +4990,10 @@
         <v>1</v>
       </c>
       <c r="C73">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -5005,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5046,10 +5046,10 @@
         <v>0.5</v>
       </c>
       <c r="C74">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D74">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5102,10 +5102,10 @@
         <v>0.5</v>
       </c>
       <c r="C75">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5158,10 +5158,10 @@
         <v>0.5</v>
       </c>
       <c r="C76">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D76">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5214,10 +5214,10 @@
         <v>0.5</v>
       </c>
       <c r="C77">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -5229,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5270,10 +5270,10 @@
         <v>0.5</v>
       </c>
       <c r="C78">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D78">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -5326,10 +5326,10 @@
         <v>0.5</v>
       </c>
       <c r="C79">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -5382,10 +5382,10 @@
         <v>0.5</v>
       </c>
       <c r="C80">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="D80">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -5438,10 +5438,10 @@
         <v>0.5</v>
       </c>
       <c r="C81">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D81">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>0.5</v>
       </c>
       <c r="C82">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D82">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -5550,10 +5550,10 @@
         <v>0.5</v>
       </c>
       <c r="C83">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D83">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0.5</v>
       </c>
       <c r="C84">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D84">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -5662,10 +5662,10 @@
         <v>0.5</v>
       </c>
       <c r="C85">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D85">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -5718,10 +5718,10 @@
         <v>0.5</v>
       </c>
       <c r="C86">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D86">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0.5</v>
       </c>
       <c r="C87">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D87">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -5830,10 +5830,10 @@
         <v>0.5</v>
       </c>
       <c r="C88">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D88">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -5886,10 +5886,10 @@
         <v>0.5</v>
       </c>
       <c r="C89">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D89">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -5942,10 +5942,10 @@
         <v>0.5</v>
       </c>
       <c r="C90">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D90">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -5998,10 +5998,10 @@
         <v>0.5</v>
       </c>
       <c r="C91">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D91">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -6054,10 +6054,10 @@
         <v>0.5</v>
       </c>
       <c r="C92">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D92">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -6110,10 +6110,10 @@
         <v>0.5</v>
       </c>
       <c r="C93">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D93">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -6166,10 +6166,10 @@
         <v>0.5</v>
       </c>
       <c r="C94">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D94">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -6222,10 +6222,10 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -6278,10 +6278,10 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -6334,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -6390,10 +6390,10 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -6446,10 +6446,10 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -6502,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -6558,10 +6558,10 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -6614,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -6726,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -6782,10 +6782,10 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -6838,10 +6838,10 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -6894,10 +6894,10 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -6950,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -7006,10 +7006,10 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -7062,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -7118,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -7174,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -7230,10 +7230,10 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -7286,10 +7286,10 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -7342,10 +7342,10 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -7454,10 +7454,10 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -7510,10 +7510,10 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -7566,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -7622,10 +7622,10 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -7678,10 +7678,10 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -7734,10 +7734,10 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -7790,10 +7790,10 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -7846,10 +7846,10 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -7902,10 +7902,10 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E126">
         <v>0</v>
